--- a/docs/MTA_Report v2_64_2018_10_10_Di.xlsx
+++ b/docs/MTA_Report v2_64_2018_10_10_Di.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t xml:space="preserve">Projekt:</t>
   </si>
@@ -168,7 +168,13 @@
     <t xml:space="preserve">Projektziele festgelegt</t>
   </si>
   <si>
+    <t xml:space="preserve">Prototyp baubereit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abgabe Zwischenbericht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semifinaler Prototyp</t>
   </si>
   <si>
     <t xml:space="preserve">Abgabe  Präsentation</t>
@@ -1514,8 +1520,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.457074428887251"/>
-          <c:y val="0.0333555703802535"/>
+          <c:x val="0.456958525345622"/>
+          <c:y val="0.0333629893238434"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1527,10 +1533,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.182940309506264"/>
-          <c:y val="0.12497220369135"/>
-          <c:w val="0.713154016212233"/>
-          <c:h val="0.674672003557928"/>
+          <c:x val="0.182857142857143"/>
+          <c:y val="0.125"/>
+          <c:w val="0.712995391705069"/>
+          <c:h val="0.674599644128114"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1874,11 +1880,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="14082530"/>
-        <c:axId val="23017781"/>
+        <c:axId val="49896785"/>
+        <c:axId val="13418287"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14082530"/>
+        <c:axId val="49896785"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1928,8 +1934,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.475865880619013"/>
-              <c:y val="0.882810762730709"/>
+              <c:x val="0.47594470046083"/>
+              <c:y val="0.882562277580071"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1961,14 +1967,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23017781"/>
+        <c:crossAx val="13418287"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23017781"/>
+        <c:axId val="13418287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2018,8 +2024,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0243183492999263"/>
-              <c:y val="0.382699577496108"/>
+              <c:x val="0.024331797235023"/>
+              <c:y val="0.382339857651246"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2051,7 +2057,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14082530"/>
+        <c:crossAx val="49896785"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -2123,8 +2129,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.360067937346669"/>
-          <c:y val="0.0316415374814186"/>
+          <c:x val="0.36020388899377"/>
+          <c:y val="0.0318606627017842"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2136,10 +2142,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.170598226080393"/>
-          <c:y val="0.150775111488639"/>
-          <c:w val="0.755802981694659"/>
-          <c:h val="0.642599277978339"/>
+          <c:x val="0.17047385312441"/>
+          <c:y val="0.150807136788445"/>
+          <c:w val="0.755710779686615"/>
+          <c:h val="0.642523364485981"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2483,11 +2489,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31376045"/>
-        <c:axId val="95398338"/>
+        <c:axId val="73771943"/>
+        <c:axId val="91612479"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31376045"/>
+        <c:axId val="73771943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2537,8 +2543,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.493866767314588"/>
-              <c:y val="0.880441707368868"/>
+              <c:x val="0.494053237681707"/>
+              <c:y val="0.880416312659303"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2570,14 +2576,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95398338"/>
+        <c:crossAx val="91612479"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95398338"/>
+        <c:axId val="91612479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2627,8 +2633,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0243442158897905"/>
-              <c:y val="0.348906349543427"/>
+              <c:x val="0.0245421936945441"/>
+              <c:y val="0.348768054375531"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2660,7 +2666,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31376045"/>
+        <c:crossAx val="73771943"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -2732,8 +2738,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.363442329036114"/>
-          <c:y val="0.0264084507042253"/>
+          <c:x val="0.363450042698548"/>
+          <c:y val="0.0264111859140342"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2745,10 +2751,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.105779902672245"/>
-          <c:y val="0.0819179784589892"/>
-          <c:w val="0.803636984547084"/>
-          <c:h val="0.820318972659486"/>
+          <c:x val="0.105807002561913"/>
+          <c:y val="0.0819264629725531"/>
+          <c:w val="0.803586678052946"/>
+          <c:h val="0.820196789228379"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3071,7 +3077,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Prototyp baubereit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3203,7 +3209,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>43411</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v/>
@@ -3432,13 +3438,13 @@
                   <c:v>43414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43414</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43414</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43414</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v/>
@@ -3523,7 +3529,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Semifinaler Prototyp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3655,7 +3661,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>43421</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v/>
@@ -4424,11 +4430,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11903213"/>
-        <c:axId val="35609313"/>
+        <c:axId val="90949492"/>
+        <c:axId val="63873558"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11903213"/>
+        <c:axId val="90949492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43452"/>
@@ -4473,14 +4479,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35609313"/>
+        <c:crossAx val="63873558"/>
         <c:crossesAt val="41926"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35609313"/>
+        <c:axId val="63873558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43452"/>
@@ -4525,7 +4531,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11903213"/>
+        <c:crossAx val="90949492"/>
         <c:crossesAt val="41926"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
@@ -4637,8 +4643,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.363480608483464"/>
-          <c:y val="0.0266623835528429"/>
+          <c:x val="0.363471125882842"/>
+          <c:y val="0.0266640966332562"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4650,10 +4656,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.105809667203157"/>
-          <c:y val="0.0819145518792162"/>
-          <c:w val="0.803696588962151"/>
-          <c:h val="0.766141985223257"/>
+          <c:x val="0.105785209804736"/>
+          <c:y val="0.0819198149575945"/>
+          <c:w val="0.803645616950561"/>
+          <c:h val="0.766062708815215"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5018,7 +5024,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Prototyp baubereit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5126,7 +5132,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>43411</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v/>
@@ -5307,13 +5313,13 @@
                   <c:v>43414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43414</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43414</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43414</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v/>
@@ -5374,7 +5380,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Semifinaler Prototyp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5482,7 +5488,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>43421</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v/>
@@ -6077,11 +6083,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72057001"/>
-        <c:axId val="41076602"/>
+        <c:axId val="88969641"/>
+        <c:axId val="7149722"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72057001"/>
+        <c:axId val="88969641"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43452"/>
@@ -6131,8 +6137,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.414568298634547"/>
-              <c:y val="0.934789592033408"/>
+              <c:x val="0.414572081429165"/>
+              <c:y val="0.934785402210229"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6164,14 +6170,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41076602"/>
+        <c:crossAx val="7149722"/>
         <c:crossesAt val="41926"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41076602"/>
+        <c:axId val="7149722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43452"/>
@@ -6221,8 +6227,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0154716785213644"/>
-              <c:y val="0.327658207516865"/>
+              <c:x val="0.0155276277523889"/>
+              <c:y val="0.327615008995117"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6254,7 +6260,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72057001"/>
+        <c:crossAx val="88969641"/>
         <c:crossesAt val="41926"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
@@ -6366,8 +6372,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.464322294298395"/>
-          <c:y val="0.0492217505558925"/>
+          <c:x val="0.464276568501921"/>
+          <c:y val="0.0492267259678561"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6379,10 +6385,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.179498122226016"/>
-          <c:y val="0.151505963210026"/>
-          <c:w val="0.749231819733697"/>
-          <c:h val="0.677885587224581"/>
+          <c:x val="0.179513444302177"/>
+          <c:y val="0.151521277671081"/>
+          <c:w val="0.749210413999146"/>
+          <c:h val="0.677853027393106"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6726,11 +6732,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59397611"/>
-        <c:axId val="41787171"/>
+        <c:axId val="99734690"/>
+        <c:axId val="81078136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59397611"/>
+        <c:axId val="99734690"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -6780,8 +6786,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.484209627859338"/>
-              <c:y val="0.897715787345866"/>
+              <c:x val="0.484165599658557"/>
+              <c:y val="0.897604366723946"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6813,14 +6819,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41787171"/>
+        <c:crossAx val="81078136"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41787171"/>
+        <c:axId val="81078136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -6870,8 +6876,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0400307272106521"/>
-              <c:y val="0.404891853648676"/>
+              <c:x val="0.0399487836107554"/>
+              <c:y val="0.404629536035581"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6903,7 +6909,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59397611"/>
+        <c:crossAx val="99734690"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -6975,8 +6981,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.447570560914612"/>
-          <c:y val="0.0642813826561552"/>
+          <c:x val="0.447521214828048"/>
+          <c:y val="0.0642878803194178"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6988,10 +6994,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.183101107538407"/>
-          <c:y val="0.151505963210026"/>
-          <c:w val="0.72374062165059"/>
-          <c:h val="0.677885587224581"/>
+          <c:x val="0.183117463153193"/>
+          <c:y val="0.151521277671081"/>
+          <c:w val="0.723715944618133"/>
+          <c:h val="0.677853027393106"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -7305,11 +7311,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96393179"/>
-        <c:axId val="20411603"/>
+        <c:axId val="8220918"/>
+        <c:axId val="26608771"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96393179"/>
+        <c:axId val="8220918"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7359,8 +7365,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.447749196141479"/>
-              <c:y val="0.897715787345866"/>
+              <c:x val="0.447789191603394"/>
+              <c:y val="0.897604366723946"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7392,14 +7398,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20411603"/>
+        <c:crossAx val="26608771"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20411603"/>
+        <c:axId val="26608771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7449,8 +7455,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.040907466952483"/>
-              <c:y val="0.374873660804528"/>
+              <c:x val="0.0408217954443948"/>
+              <c:y val="0.374709390478116"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7482,7 +7488,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96393179"/>
+        <c:crossAx val="8220918"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -7528,10 +7534,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0839201261166579"/>
-          <c:y val="0.0871539313399779"/>
-          <c:w val="0.642091434576984"/>
-          <c:h val="0.684496124031008"/>
+          <c:x val="0.0839245362341689"/>
+          <c:y val="0.0871635840070883"/>
+          <c:w val="0.642072625991907"/>
+          <c:h val="0.68446118064016"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7864,8 +7870,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="21793237"/>
-        <c:axId val="17462568"/>
+        <c:axId val="69401717"/>
+        <c:axId val="81146233"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8208,11 +8214,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="30878300"/>
-        <c:axId val="36484391"/>
+        <c:axId val="57047041"/>
+        <c:axId val="42000473"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21793237"/>
+        <c:axId val="69401717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8245,14 +8251,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17462568"/>
+        <c:crossAx val="81146233"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17462568"/>
+        <c:axId val="81146233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8285,11 +8291,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21793237"/>
+        <c:crossAx val="69401717"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="30878300"/>
+        <c:axId val="57047041"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8322,14 +8328,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36484391"/>
+        <c:crossAx val="42000473"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36484391"/>
+        <c:axId val="42000473"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8362,7 +8368,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30878300"/>
+        <c:crossAx val="57047041"/>
         <c:crosses val="max"/>
       </c:valAx>
       <c:spPr>
@@ -8471,8 +8477,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.388763066202091"/>
-          <c:y val="0.0641738251642244"/>
+          <c:x val="0.388729204773103"/>
+          <c:y val="0.0640792399434"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8484,10 +8490,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.178745644599303"/>
-          <c:y val="0.151288529560384"/>
-          <c:w val="0.746341463414634"/>
-          <c:h val="0.67710965133906"/>
+          <c:x val="0.178730075777371"/>
+          <c:y val="0.151303820497271"/>
+          <c:w val="0.746276456754638"/>
+          <c:h val="0.67707701637356"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8831,11 +8837,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71048011"/>
-        <c:axId val="77169151"/>
+        <c:axId val="62974972"/>
+        <c:axId val="56122129"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71048011"/>
+        <c:axId val="62974972"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -8885,8 +8891,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.482404181184669"/>
-              <c:y val="0.896614451743305"/>
+              <c:x val="0.482362163574601"/>
+              <c:y val="0.896502931069335"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8918,14 +8924,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77169151"/>
+        <c:crossAx val="56122129"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77169151"/>
+        <c:axId val="56122129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -8975,8 +8981,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0398954703832753"/>
-              <c:y val="0.362910560889338"/>
+              <c:x val="0.0398919954707778"/>
+              <c:y val="0.362745098039216"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9008,7 +9014,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71048011"/>
+        <c:crossAx val="62974972"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -9080,8 +9086,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.392550911039657"/>
-          <c:y val="0.064604462474645"/>
+          <c:x val="0.39258597588209"/>
+          <c:y val="0.064611015315955"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9093,10 +9099,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.183101107538407"/>
-          <c:y val="0.152129817444219"/>
-          <c:w val="0.744105037513398"/>
-          <c:h val="0.676673427991886"/>
+          <c:x val="0.183117463153193"/>
+          <c:y val="0.152145247996754"/>
+          <c:w val="0.744082179544439"/>
+          <c:h val="0.676640632924232"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9440,11 +9446,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="77925818"/>
-        <c:axId val="93658820"/>
+        <c:axId val="467054"/>
+        <c:axId val="94230673"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77925818"/>
+        <c:axId val="467054"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -9494,8 +9500,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.491336191496963"/>
-              <c:y val="0.8973630831643"/>
+              <c:x val="0.491380080393033"/>
+              <c:y val="0.897251242519525"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9527,14 +9533,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93658820"/>
+        <c:crossAx val="94230673"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93658820"/>
+        <c:axId val="94230673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -9584,8 +9590,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.040907466952483"/>
-              <c:y val="0.376369168356998"/>
+              <c:x val="0.0408217954443948"/>
+              <c:y val="0.376305913378639"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9617,7 +9623,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77925818"/>
+        <c:crossAx val="467054"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -9663,9 +9669,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9673,8 +9679,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5323680" y="7380000"/>
-        <a:ext cx="1953720" cy="1618560"/>
+        <a:off x="5322960" y="7380000"/>
+        <a:ext cx="1952640" cy="1618200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9693,9 +9699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>780120</xdr:colOff>
+      <xdr:colOff>779760</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9703,8 +9709,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5294880" y="9133200"/>
-        <a:ext cx="1907280" cy="1694880"/>
+        <a:off x="5294160" y="9133200"/>
+        <a:ext cx="1906560" cy="1694520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9723,9 +9729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>599400</xdr:colOff>
+      <xdr:colOff>599040</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9734,7 +9740,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1087560" y="7373520"/>
-        <a:ext cx="4216320" cy="3475800"/>
+        <a:ext cx="4215240" cy="3475440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9754,13 +9760,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>165240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>901080</xdr:colOff>
+      <xdr:colOff>900720</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9768,8 +9774,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3159720" y="5464080"/>
-        <a:ext cx="6933600" cy="5603040"/>
+        <a:off x="3160440" y="5464080"/>
+        <a:ext cx="6931800" cy="5602680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9793,9 +9799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>84960</xdr:colOff>
+      <xdr:colOff>84600</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9804,7 +9810,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1370160" y="4295880"/>
-        <a:ext cx="4217400" cy="3561480"/>
+        <a:ext cx="4217040" cy="3561120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9823,9 +9829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9834,7 +9840,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6359400" y="4295880"/>
-        <a:ext cx="4030200" cy="3561480"/>
+        <a:ext cx="4029840" cy="3561120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9853,9 +9859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1068120</xdr:colOff>
+      <xdr:colOff>1067760</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9864,7 +9870,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1382760" y="12315600"/>
-        <a:ext cx="6850440" cy="3250440"/>
+        <a:ext cx="6850080" cy="3250080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9883,9 +9889,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1158120</xdr:colOff>
+      <xdr:colOff>1157760</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9894,7 +9900,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1370160" y="8343720"/>
-        <a:ext cx="4132440" cy="3561840"/>
+        <a:ext cx="4132800" cy="3561480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9913,9 +9919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9924,7 +9930,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6359400" y="8343720"/>
-        <a:ext cx="4030200" cy="3549240"/>
+        <a:ext cx="4029840" cy="3548880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9944,8 +9950,8 @@
   </sheetPr>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9954,7 +9960,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.99"/>
@@ -10820,13 +10826,13 @@
   </sheetPr>
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="43" width="14.43"/>
@@ -10881,19 +10887,23 @@
       <c r="C4" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="71"/>
+      <c r="D4" s="71" t="s">
+        <v>45</v>
+      </c>
       <c r="E4" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="71"/>
+        <v>46</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>47</v>
+      </c>
       <c r="G4" s="71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I4" s="72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J4" s="69"/>
       <c r="K4" s="73"/>
@@ -10909,11 +10919,15 @@
       <c r="C5" s="75" t="n">
         <v>43389</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="75" t="n">
+        <v>43411</v>
+      </c>
       <c r="E5" s="76" t="n">
         <v>43414</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="75" t="n">
+        <v>43421</v>
+      </c>
       <c r="G5" s="76" t="n">
         <v>43431</v>
       </c>
@@ -10926,7 +10940,7 @@
       <c r="J5" s="69"/>
       <c r="K5" s="73"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="57" t="n">
         <f aca="false">A5+$B$2</f>
         <v>43396</v>
@@ -10937,20 +10951,18 @@
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="75"/>
-      <c r="E6" s="76" t="n">
-        <v>43414</v>
-      </c>
+      <c r="E6" s="76"/>
       <c r="F6" s="75"/>
       <c r="G6" s="76"/>
       <c r="H6" s="76"/>
       <c r="I6" s="76"/>
-      <c r="J6" s="74" t="str">
+      <c r="J6" s="74" t="n">
         <f aca="false">IF(B6&gt;$K$24,B6,"")</f>
-        <v/>
+        <v>43396</v>
       </c>
       <c r="K6" s="74" t="n">
         <f aca="false">MAX(C6:I6)</f>
-        <v>43414</v>
+        <v>0</v>
       </c>
       <c r="L6" s="78"/>
       <c r="M6" s="58" t="n">
@@ -10958,7 +10970,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="57" t="n">
         <f aca="false">A6+$B$2</f>
         <v>43403</v>
@@ -10969,20 +10981,18 @@
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
-      <c r="E7" s="76" t="n">
-        <v>43414</v>
-      </c>
+      <c r="E7" s="76"/>
       <c r="F7" s="75"/>
       <c r="G7" s="76"/>
       <c r="H7" s="76"/>
       <c r="I7" s="76"/>
-      <c r="J7" s="74" t="str">
+      <c r="J7" s="74" t="n">
         <f aca="false">IF(B7&gt;$K$24,B7,"")</f>
-        <v/>
+        <v>43403</v>
       </c>
       <c r="K7" s="74" t="n">
         <f aca="false">MAX(C7:I7)</f>
-        <v>43414</v>
+        <v>0</v>
       </c>
       <c r="L7" s="78"/>
       <c r="M7" s="58" t="n">
@@ -10990,7 +11000,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="57" t="n">
         <f aca="false">A7+$B$2</f>
         <v>43410</v>
@@ -11001,20 +11011,18 @@
       </c>
       <c r="C8" s="77"/>
       <c r="D8" s="77"/>
-      <c r="E8" s="76" t="n">
-        <v>43414</v>
-      </c>
+      <c r="E8" s="76"/>
       <c r="F8" s="75"/>
       <c r="G8" s="76"/>
       <c r="H8" s="76"/>
       <c r="I8" s="76"/>
-      <c r="J8" s="74" t="str">
+      <c r="J8" s="74" t="n">
         <f aca="false">IF(B8&gt;$K$24,B8,"")</f>
-        <v/>
+        <v>43410</v>
       </c>
       <c r="K8" s="74" t="n">
         <f aca="false">MAX(C8:I8)</f>
-        <v>43414</v>
+        <v>0</v>
       </c>
       <c r="L8" s="78"/>
       <c r="M8" s="58" t="n">
@@ -11447,17 +11455,17 @@
       <c r="I24" s="4"/>
       <c r="J24" s="74" t="n">
         <f aca="false">MIN(J6:J23)</f>
-        <v>43417</v>
+        <v>43396</v>
       </c>
       <c r="K24" s="74" t="n">
         <f aca="false">MAX(K6:K23)</f>
-        <v>43414</v>
+        <v>0</v>
       </c>
       <c r="L24" s="83"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="84" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="85"/>
       <c r="D25" s="86"/>
@@ -11487,9 +11495,9 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="87"/>
-      <c r="B27" s="43" t="n">
+      <c r="B27" s="43" t="str">
         <f aca="false">D4</f>
-        <v>0</v>
+        <v>Prototyp baubereit</v>
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="74" t="n">
@@ -11521,9 +11529,9 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="87"/>
-      <c r="B29" s="43" t="n">
+      <c r="B29" s="43" t="str">
         <f aca="false">F4</f>
-        <v>0</v>
+        <v>Semifinaler Prototyp</v>
       </c>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -11590,12 +11598,12 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="88" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="90" t="n">
         <v>43389</v>
@@ -11603,7 +11611,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="90" t="n">
         <v>43452</v>
@@ -11611,7 +11619,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="89" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="90" t="n">
         <v>7</v>
@@ -11619,7 +11627,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="89" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="90" t="n">
         <v>1</v>
@@ -11627,7 +11635,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="89" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="90" t="n">
         <f aca="false">B35</f>
@@ -11636,37 +11644,37 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="91" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="92"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="91" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="92"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="91" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="92"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="91" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="92"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="92"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="93" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11674,7 +11682,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="95" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11682,7 +11690,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="95" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11690,17 +11698,17 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="88" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -11730,7 +11738,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="60" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="60" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="98" width="12.14"/>
@@ -11746,19 +11754,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="86" t="n">
         <f aca="false">MTA!B1</f>
         <v>43389</v>
       </c>
       <c r="K1" s="64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="n">
         <f aca="false">MTA!B2</f>
@@ -11766,7 +11774,7 @@
       </c>
       <c r="C2" s="86"/>
       <c r="K2" s="64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N2" s="95"/>
       <c r="O2" s="95"/>
@@ -11786,14 +11794,14 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="99" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="101" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" s="101"/>
       <c r="F4" s="101"/>
@@ -11801,7 +11809,7 @@
       <c r="H4" s="101"/>
       <c r="I4" s="102"/>
       <c r="J4" s="103" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4" s="103"/>
       <c r="N4" s="95"/>
@@ -11815,32 +11823,32 @@
         <v>42</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="105"/>
       <c r="D5" s="106" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H5" s="107" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I5" s="109" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J5" s="110" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5" s="111" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11848,7 +11856,7 @@
         <v>41194</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" s="114" t="n">
         <f aca="false">A6</f>
@@ -12562,12 +12570,12 @@
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="94"/>
       <c r="E25" s="95" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F25" s="95"/>
       <c r="G25" s="96"/>
       <c r="H25" s="95" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -12601,7 +12609,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
